--- a/src/test/resources/etalon/combinesheets/CS_009_considerTableHeadersPreserveFormattingSeparateByBlankRow.xlsx
+++ b/src/test/resources/etalon/combinesheets/CS_009_considerTableHeadersPreserveFormattingSeparateByBlankRow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="27495" windowHeight="11445"/>
+    <workbookView xWindow="634" yWindow="557" windowWidth="27497" windowHeight="11443"/>
   </bookViews>
   <sheets>
     <sheet name="Combined data" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Column1</t>
   </si>
@@ -53,6 +53,51 @@
   </si>
   <si>
     <t>Row5</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>4151</t>
+  </si>
+  <si>
+    <t>5295</t>
+  </si>
+  <si>
+    <t>10219</t>
+  </si>
+  <si>
+    <t>960.5</t>
+  </si>
+  <si>
+    <t>1464.5</t>
+  </si>
+  <si>
+    <t>1968.5</t>
+  </si>
+  <si>
+    <t>2472.5</t>
+  </si>
+  <si>
+    <t>11976.5</t>
   </si>
 </sst>
 </file>
@@ -385,11 +430,13 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -412,7 +459,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -431,13 +478,13 @@
       <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="3">
-        <v>133</v>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -456,13 +503,13 @@
       <c r="F3" s="2">
         <v>200</v>
       </c>
-      <c r="G3" s="3">
-        <v>277</v>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -481,13 +528,13 @@
       <c r="F4" s="2">
         <v>300</v>
       </c>
-      <c r="G4" s="3">
-        <v>421</v>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -506,13 +553,13 @@
       <c r="F5" s="2">
         <v>400</v>
       </c>
-      <c r="G5" s="3">
-        <v>565</v>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -531,13 +578,13 @@
       <c r="F6" s="2">
         <v>500</v>
       </c>
-      <c r="G6" s="3">
-        <v>709</v>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -548,7 +595,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="4">
         <v>11</v>
@@ -565,15 +612,15 @@
       <c r="F8" s="4">
         <v>1100</v>
       </c>
-      <c r="G8" s="5">
-        <v>1863</v>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="6">
         <v>13</v>
@@ -590,15 +637,15 @@
       <c r="F9" s="6">
         <v>2200</v>
       </c>
-      <c r="G9" s="7">
-        <v>3007</v>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="4">
         <v>15</v>
@@ -615,15 +662,15 @@
       <c r="F10" s="4">
         <v>3300</v>
       </c>
-      <c r="G10" s="5">
-        <v>4151</v>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="6">
         <v>17</v>
@@ -640,15 +687,15 @@
       <c r="F11" s="6">
         <v>4400</v>
       </c>
-      <c r="G11" s="7">
-        <v>5295</v>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="4">
         <v>19</v>
@@ -665,15 +712,15 @@
       <c r="F12" s="4">
         <v>5500</v>
       </c>
-      <c r="G12" s="5">
-        <v>10219</v>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -684,7 +731,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="2">
         <v>51</v>
@@ -701,15 +748,15 @@
       <c r="F14" s="2">
         <v>600</v>
       </c>
-      <c r="G14" s="8">
-        <v>960.5</v>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="2">
         <v>53</v>
@@ -726,15 +773,15 @@
       <c r="F15" s="2">
         <v>700</v>
       </c>
-      <c r="G15" s="8">
-        <v>1464.5</v>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="2">
         <v>55</v>
@@ -751,15 +798,15 @@
       <c r="F16" s="2">
         <v>800</v>
       </c>
-      <c r="G16" s="8">
-        <v>1968.5</v>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="2">
         <v>57</v>
@@ -776,15 +823,15 @@
       <c r="F17" s="2">
         <v>900</v>
       </c>
-      <c r="G17" s="8">
-        <v>2472.5</v>
+      <c r="G17" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="2">
         <v>59</v>
@@ -801,8 +848,8 @@
       <c r="F18" s="2">
         <v>10000</v>
       </c>
-      <c r="G18" s="8">
-        <v>11976.5</v>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="1" t="s">
